--- a/模型对应表.xlsx
+++ b/模型对应表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05BianCheng\QT\WellTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE418CBB-66F4-41D2-9B69-644C59DA39E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4EF69F-3E9C-4D57-A2C3-7B6FE96905BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="modelsolver01-06" sheetId="1" r:id="rId1"/>
+    <sheet name="modelsolver19-36" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="167">
   <si>
     <t>井模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,18 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>井储表皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不考虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>径向复合油藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,123 +72,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>model1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model2</t>
-  </si>
-  <si>
-    <t>model3</t>
-  </si>
-  <si>
-    <t>model4</t>
-  </si>
-  <si>
-    <t>model5</t>
-  </si>
-  <si>
-    <t>model6</t>
-  </si>
-  <si>
-    <t>model7</t>
-  </si>
-  <si>
-    <t>model8</t>
-  </si>
-  <si>
-    <t>model9</t>
-  </si>
-  <si>
-    <t>model10</t>
-  </si>
-  <si>
-    <t>model11</t>
-  </si>
-  <si>
-    <t>model12</t>
-  </si>
-  <si>
-    <t>model13</t>
-  </si>
-  <si>
-    <t>model14</t>
-  </si>
-  <si>
-    <t>model15</t>
-  </si>
-  <si>
-    <t>model16</t>
-  </si>
-  <si>
-    <t>model17</t>
-  </si>
-  <si>
-    <t>model18</t>
-  </si>
-  <si>
     <t>夹层型径向复合油藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>model19</t>
-  </si>
-  <si>
-    <t>model20</t>
-  </si>
-  <si>
-    <t>model21</t>
-  </si>
-  <si>
-    <t>model22</t>
-  </si>
-  <si>
-    <t>model23</t>
-  </si>
-  <si>
-    <t>model24</t>
-  </si>
-  <si>
     <t>夹层型+夹层型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>model25</t>
-  </si>
-  <si>
-    <t>model26</t>
-  </si>
-  <si>
-    <t>model27</t>
-  </si>
-  <si>
-    <t>model28</t>
-  </si>
-  <si>
-    <t>model29</t>
-  </si>
-  <si>
-    <t>model30</t>
-  </si>
-  <si>
-    <t>model31</t>
-  </si>
-  <si>
-    <t>model32</t>
-  </si>
-  <si>
-    <t>model33</t>
-  </si>
-  <si>
-    <t>model34</t>
-  </si>
-  <si>
-    <t>model35</t>
-  </si>
-  <si>
-    <t>model36</t>
-  </si>
-  <si>
     <t>夹层型+均质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,10 +150,6 @@
     <t>页岩型+双重孔隙</t>
   </si>
   <si>
-    <t>夹层型储层试井解释模型7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>页岩型储层试井解释模型1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,6 +203,355 @@
   </si>
   <si>
     <t>页岩型储层试井解释模型18</t>
+  </si>
+  <si>
+    <t>定井储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fair模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hegeman模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型7</t>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型13</t>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型14</t>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型15</t>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型16</t>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型17</t>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型18</t>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型19</t>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型20</t>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型21</t>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型22</t>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型23</t>
+  </si>
+  <si>
+    <t>夹层型储层试井解释模型24</t>
+  </si>
+  <si>
+    <t>径向复合模型7</t>
+  </si>
+  <si>
+    <t>径向复合模型8</t>
+  </si>
+  <si>
+    <t>径向复合模型9</t>
+  </si>
+  <si>
+    <t>径向复合模型10</t>
+  </si>
+  <si>
+    <t>径向复合模型11</t>
+  </si>
+  <si>
+    <t>径向复合模型12</t>
+  </si>
+  <si>
+    <t>线源解</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型19</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型20</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型21</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型22</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型23</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型24</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型25</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型26</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型27</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型28</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型29</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型30</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型31</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型32</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型33</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型34</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型35</t>
+  </si>
+  <si>
+    <t>页岩型储层试井解释模型36</t>
+  </si>
+  <si>
+    <t>model1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model1-3</t>
+  </si>
+  <si>
+    <t>model1-4</t>
+  </si>
+  <si>
+    <t>model1-5</t>
+  </si>
+  <si>
+    <t>model1-6</t>
+  </si>
+  <si>
+    <t>model1-7</t>
+  </si>
+  <si>
+    <t>model1-8</t>
+  </si>
+  <si>
+    <t>model1-9</t>
+  </si>
+  <si>
+    <t>model1-10</t>
+  </si>
+  <si>
+    <t>model1-11</t>
+  </si>
+  <si>
+    <t>model1-12</t>
+  </si>
+  <si>
+    <t>model1-13</t>
+  </si>
+  <si>
+    <t>model1-14</t>
+  </si>
+  <si>
+    <t>model1-15</t>
+  </si>
+  <si>
+    <t>model1-16</t>
+  </si>
+  <si>
+    <t>model1-17</t>
+  </si>
+  <si>
+    <t>model1-18</t>
+  </si>
+  <si>
+    <t>model1-19</t>
+  </si>
+  <si>
+    <t>model1-20</t>
+  </si>
+  <si>
+    <t>model1-21</t>
+  </si>
+  <si>
+    <t>model1-22</t>
+  </si>
+  <si>
+    <t>model1-23</t>
+  </si>
+  <si>
+    <t>model1-24</t>
+  </si>
+  <si>
+    <t>model1-25</t>
+  </si>
+  <si>
+    <t>model1-26</t>
+  </si>
+  <si>
+    <t>model1-27</t>
+  </si>
+  <si>
+    <t>model1-28</t>
+  </si>
+  <si>
+    <t>model1-29</t>
+  </si>
+  <si>
+    <t>model1-30</t>
+  </si>
+  <si>
+    <t>model1-31</t>
+  </si>
+  <si>
+    <t>model1-32</t>
+  </si>
+  <si>
+    <t>model1-33</t>
+  </si>
+  <si>
+    <t>model1-34</t>
+  </si>
+  <si>
+    <t>model1-35</t>
+  </si>
+  <si>
+    <t>model1-36</t>
+  </si>
+  <si>
+    <t>model2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model2-2</t>
+  </si>
+  <si>
+    <t>model2-3</t>
+  </si>
+  <si>
+    <t>model2-4</t>
+  </si>
+  <si>
+    <t>model2-5</t>
+  </si>
+  <si>
+    <t>model2-6</t>
+  </si>
+  <si>
+    <t>model2-7</t>
+  </si>
+  <si>
+    <t>model2-8</t>
+  </si>
+  <si>
+    <t>model2-9</t>
+  </si>
+  <si>
+    <t>model2-10</t>
+  </si>
+  <si>
+    <t>model2-11</t>
+  </si>
+  <si>
+    <t>model2-12</t>
+  </si>
+  <si>
+    <t>model2-13</t>
+  </si>
+  <si>
+    <t>model2-14</t>
+  </si>
+  <si>
+    <t>model2-15</t>
+  </si>
+  <si>
+    <t>model2-16</t>
+  </si>
+  <si>
+    <t>model2-17</t>
+  </si>
+  <si>
+    <t>model2-18</t>
+  </si>
+  <si>
+    <t>model2-19</t>
+  </si>
+  <si>
+    <t>model2-20</t>
+  </si>
+  <si>
+    <t>model2-21</t>
+  </si>
+  <si>
+    <t>model2-22</t>
+  </si>
+  <si>
+    <t>model2-23</t>
+  </si>
+  <si>
+    <t>model2-24</t>
+  </si>
+  <si>
+    <t>model2-25</t>
+  </si>
+  <si>
+    <t>model2-26</t>
+  </si>
+  <si>
+    <t>model2-27</t>
+  </si>
+  <si>
+    <t>model2-28</t>
+  </si>
+  <si>
+    <t>model2-29</t>
+  </si>
+  <si>
+    <t>model2-30</t>
+  </si>
+  <si>
+    <t>model2-31</t>
+  </si>
+  <si>
+    <t>model2-32</t>
+  </si>
+  <si>
+    <t>model2-33</t>
+  </si>
+  <si>
+    <t>model2-34</t>
+  </si>
+  <si>
+    <t>model2-35</t>
+  </si>
+  <si>
+    <t>model2-36</t>
+  </si>
+  <si>
+    <t>井储模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -384,10 +609,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,32 +895,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="25.640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.0703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.35546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.2109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="25.640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -709,10 +920,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -721,27 +932,27 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -750,27 +961,27 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -779,27 +990,27 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -808,27 +1019,27 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -837,27 +1048,27 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -866,27 +1077,27 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -895,12 +1106,12 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -909,13 +1120,13 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -924,12 +1135,12 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
@@ -938,13 +1149,13 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -953,12 +1164,12 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -967,13 +1178,13 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -982,12 +1193,12 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -996,13 +1207,13 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1011,12 +1222,12 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -1028,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1040,12 +1251,12 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -1057,10 +1268,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1069,27 +1280,27 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1098,27 +1309,27 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1127,27 +1338,27 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1156,27 +1367,27 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1185,27 +1396,27 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1214,27 +1425,27 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1243,27 +1454,27 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1272,27 +1483,27 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1301,27 +1512,27 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1330,27 +1541,27 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1359,27 +1570,27 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1388,27 +1599,27 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1417,27 +1628,27 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1446,27 +1657,27 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1475,27 +1686,27 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1504,27 +1715,27 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1533,27 +1744,27 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1562,27 +1773,27 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1591,27 +1802,27 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1620,27 +1831,27 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1649,27 +1860,27 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1678,27 +1889,27 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1707,27 +1918,27 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1736,27 +1947,27 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1765,9 +1976,939 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E298C0-B148-45D6-BFB9-6A54C9571DF1}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>